--- a/Экономика/biznes plan rascheti.xlsx
+++ b/Экономика/biznes plan rascheti.xlsx
@@ -228,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Экономика/biznes plan rascheti.xlsx
+++ b/Экономика/biznes plan rascheti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Оборудование</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Денежный поток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даты</t>
   </si>
   <si>
     <t xml:space="preserve">Для расходов</t>
@@ -100,6 +103,9 @@
     <t xml:space="preserve">ИД</t>
   </si>
   <si>
+    <t xml:space="preserve">ВНД</t>
+  </si>
+  <si>
     <t xml:space="preserve">(1+d)^t</t>
   </si>
   <si>
@@ -116,15 +122,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0\ [$р.-419];[RED]\-#,##0\ [$р.-419]"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$р.-419];[RED]\-#,##0.00\ [$р.-419]"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="#\ ##0\ [$р.-419];[RED]\-#\ ##0\ [$р.-419]"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$р.-419];[RED]\-#,##0.00\ [$р.-419]"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="#\ ##0\ [$р.-419];[RED]\-#\ ##0\ [$р.-419]"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -231,11 +238,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,27 +254,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,7 +346,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -662,19 +669,19 @@
                   <c:v>3567725</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3877300</c:v>
+                  <c:v>3801175</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4110750</c:v>
+                  <c:v>4060000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4369575</c:v>
+                  <c:v>4364500</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4674075</c:v>
+                  <c:v>4669000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4983650</c:v>
+                  <c:v>4948125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,11 +696,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56349950"/>
-        <c:axId val="76673418"/>
+        <c:axId val="83674295"/>
+        <c:axId val="92623352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56349950"/>
+        <c:axId val="83674295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76673418"/>
+        <c:crossAx val="92623352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76673418"/>
+        <c:axId val="92623352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56349950"/>
+        <c:crossAx val="83674295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,8 +852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25418520" y="6544800"/>
-        <a:ext cx="4560480" cy="2651400"/>
+        <a:off x="25713720" y="6544800"/>
+        <a:ext cx="4560840" cy="2651400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -867,13 +874,13 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.7"/>
@@ -910,23 +917,26 @@
       <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="N1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>45000</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -944,34 +954,39 @@
         <v>-590630.78977602</v>
       </c>
       <c r="I2" s="4" t="n">
-        <f aca="false">G2-F2</f>
+        <f aca="false">H2</f>
         <v>-590630.78977602</v>
       </c>
+      <c r="J2" s="5" t="n">
+        <f aca="true">TODAY()</f>
+        <v>44687</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="N2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="S2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -989,20 +1004,25 @@
         <v>-630630.78977602</v>
       </c>
       <c r="I3" s="4" t="n">
-        <f aca="false">G3-F3-I2</f>
+        <f aca="false">H3-I2</f>
         <v>-40000</v>
       </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">EDATE(J2,(E3-E2))</f>
+        <v>44718</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="N3" s="4" t="n">
         <f aca="false">ABS(PMT((N12/12),N7,B13,0,0))</f>
         <v>39630.7897760202</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="7" t="n">
         <f aca="false">P3*0.015</f>
         <v>0</v>
       </c>
@@ -1030,22 +1050,27 @@
         <v>-670630.78977602</v>
       </c>
       <c r="I4" s="4" t="n">
-        <f aca="false">G4-F4-I3</f>
-        <v>-630630.78977602</v>
-      </c>
+        <f aca="false">H4-H3</f>
+        <v>-40000</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">EDATE(J3,(E4-E3))</f>
+        <v>44748</v>
+      </c>
+      <c r="K4" s="4"/>
       <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
         <f aca="false">P4*0.015</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -1064,20 +1089,25 @@
         <v>-885555.78977602</v>
       </c>
       <c r="I5" s="4" t="n">
-        <f aca="false">G5-F5-I4</f>
-        <v>-254925</v>
-      </c>
+        <f aca="false">H5-H4</f>
+        <v>-214925</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">EDATE(J4,(E5-E4))</f>
+        <v>44779</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="P5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <f aca="false">P5*0.015</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1094,23 +1124,28 @@
         <v>-955330.78977602</v>
       </c>
       <c r="I6" s="4" t="n">
-        <f aca="false">G6-F6-I5</f>
-        <v>-700405.78977602</v>
-      </c>
+        <f aca="false">H6-H5</f>
+        <v>-69775</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">EDATE(J5,(E6-E5))</f>
+        <v>44810</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="N6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="7" t="n">
         <f aca="false">P6*0.015</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1127,8 +1162,12 @@
         <v>-964205.78977602</v>
       </c>
       <c r="I7" s="4" t="n">
-        <f aca="false">G7-F7-I6</f>
-        <v>-263800</v>
+        <f aca="false">H7-H6</f>
+        <v>-8875</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">EDATE(J6,(E7-E6))</f>
+        <v>44840</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>60</v>
@@ -1136,14 +1175,14 @@
       <c r="P7" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
         <f aca="false">P7*0.015</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1160,20 +1199,24 @@
         <v>-947705.78977602</v>
       </c>
       <c r="I8" s="4" t="n">
-        <f aca="false">G8-F8-I7</f>
-        <v>-683905.78977602</v>
+        <f aca="false">H8-H7</f>
+        <v>16500</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">EDATE(J7,(E8-E7))</f>
+        <v>44871</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="7" t="n">
         <f aca="false">P8*0.015</f>
         <v>22.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1190,20 +1233,24 @@
         <v>-778955.78977602</v>
       </c>
       <c r="I9" s="4" t="n">
-        <f aca="false">G9-F9-I8</f>
-        <v>-95050</v>
+        <f aca="false">H9-H8</f>
+        <v>168750</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">EDATE(J8,(E9-E8))</f>
+        <v>44901</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <f aca="false">P9*0.015</f>
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1220,13 +1267,17 @@
         <v>-559455.78977602</v>
       </c>
       <c r="I10" s="4" t="n">
-        <f aca="false">G10-F10-I9</f>
-        <v>-464405.78977602</v>
+        <f aca="false">H10-H9</f>
+        <v>219500</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">EDATE(J9,(E10-E9))</f>
+        <v>44932</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="7" t="n">
         <f aca="false">P10*0.015</f>
         <v>75</v>
       </c>
@@ -1248,16 +1299,20 @@
         <v>-365330.78977602</v>
       </c>
       <c r="I11" s="4" t="n">
-        <f aca="false">G11-F11-I10</f>
-        <v>99075</v>
+        <f aca="false">H11-H10</f>
+        <v>194125</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <f aca="false">EDATE(J10,(E11-E10))</f>
+        <v>44963</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="7" t="n">
         <f aca="false">P11*0.015</f>
         <v>90</v>
       </c>
@@ -1279,25 +1334,29 @@
         <v>-140755.78977602</v>
       </c>
       <c r="I12" s="4" t="n">
-        <f aca="false">G12-F12-I11</f>
-        <v>-239830.78977602</v>
-      </c>
-      <c r="N12" s="8" t="n">
+        <f aca="false">H12-H11</f>
+        <v>224575</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">EDATE(J11,(E12-E11))</f>
+        <v>44991</v>
+      </c>
+      <c r="N12" s="9" t="n">
         <v>0.189</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>5500</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <f aca="false">P12*0.015</f>
         <v>82.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="n">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <f aca="false">B1+(B2+B3)*B5</f>
         <v>1531000</v>
       </c>
@@ -1317,20 +1376,24 @@
         <v>68594.2102239798</v>
       </c>
       <c r="I13" s="4" t="n">
-        <f aca="false">G13-F13-I12</f>
-        <v>308425</v>
+        <f aca="false">H13-H12</f>
+        <v>209350</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">EDATE(J12,(E13-E12))</f>
+        <v>45022</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>6100</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
         <f aca="false">P13*0.015</f>
         <v>91.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="E14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1347,13 +1410,17 @@
         <v>272869.21022398</v>
       </c>
       <c r="I14" s="4" t="n">
-        <f aca="false">G14-F14-I13</f>
-        <v>-35555.7897760202</v>
+        <f aca="false">H14-H13</f>
+        <v>204275</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">EDATE(J13,(E14-E13))</f>
+        <v>45052</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>5800</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="7" t="n">
         <f aca="false">P14*0.015</f>
         <v>87</v>
       </c>
@@ -1375,13 +1442,17 @@
         <v>329969.21022398</v>
       </c>
       <c r="I15" s="4" t="n">
-        <f aca="false">G15-F15-I14</f>
-        <v>365525</v>
+        <f aca="false">H15-H14</f>
+        <v>57100</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">EDATE(J14,(E15-E14))</f>
+        <v>45083</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>5700</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
         <f aca="false">P15*0.015</f>
         <v>85.5</v>
       </c>
@@ -1403,25 +1474,29 @@
         <v>361694.21022398</v>
       </c>
       <c r="I16" s="4" t="n">
-        <f aca="false">G16-F16-I15</f>
-        <v>-3830.78977602022</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>21</v>
+        <f aca="false">H16-H15</f>
+        <v>31725</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">EDATE(J15,(E16-E15))</f>
+        <v>45113</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>2800</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="7" t="n">
         <f aca="false">P16*0.015</f>
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <v>0.1</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -1440,25 +1515,29 @@
         <v>510144.21022398</v>
       </c>
       <c r="I17" s="4" t="n">
-        <f aca="false">G17-F17-I16</f>
-        <v>513975</v>
-      </c>
-      <c r="N17" s="7"/>
+        <f aca="false">H17-H16</f>
+        <v>148450</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">EDATE(J16,(E17-E16))</f>
+        <v>45144</v>
+      </c>
+      <c r="N17" s="8"/>
       <c r="P17" s="0" t="n">
         <v>2300</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
         <f aca="false">P17*0.015</f>
         <v>34.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="n">
         <f aca="false">H26-B17*H26</f>
-        <v>2077217.28920158</v>
+        <v>2045244.78920158</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
@@ -1476,8 +1555,12 @@
         <v>683969.21022398</v>
       </c>
       <c r="I18" s="4" t="n">
-        <f aca="false">G18-F18-I17</f>
-        <v>169994.21022398</v>
+        <f aca="false">H18-H17</f>
+        <v>173825</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">EDATE(J17,(E18-E17))</f>
+        <v>45175</v>
       </c>
       <c r="N18" s="4" t="n">
         <f aca="false">N7*N3</f>
@@ -1486,16 +1569,16 @@
       <c r="P18" s="0" t="n">
         <v>4600</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="7" t="n">
         <f aca="false">P18*0.015</f>
         <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12" t="n">
         <f aca="false">B13*POWER((1+B17),B26)</f>
         <v>2465690.81</v>
       </c>
@@ -1515,24 +1598,28 @@
         <v>903469.21022398</v>
       </c>
       <c r="I19" s="4" t="n">
-        <f aca="false">G19-F19-I18</f>
-        <v>733475</v>
+        <f aca="false">H19-H18</f>
+        <v>219500</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">EDATE(J18,(E19-E18))</f>
+        <v>45205</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>5100</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="7" t="n">
         <f aca="false">P19*0.015</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B20" s="13" t="n">
         <f aca="false">(H61/B25)/B13</f>
-        <v>2.00179973507059</v>
+        <v>3.62781463675244</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>19</v>
@@ -1550,18 +1637,29 @@
         <v>1122969.21022398</v>
       </c>
       <c r="I20" s="4" t="n">
-        <f aca="false">G20-F20-I19</f>
-        <v>389494.21022398</v>
+        <f aca="false">H20-H19</f>
+        <v>219500</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">EDATE(J19,(E20-E19))</f>
+        <v>45236</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="7" t="n">
         <f aca="false">P20*0.015</f>
         <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <f aca="false">XIRR(I2:I61,J2:J61)/12</f>
+        <v>0.211311961541102</v>
+      </c>
       <c r="E21" s="0" t="n">
         <v>20</v>
       </c>
@@ -1578,13 +1676,17 @@
         <v>1317094.21022398</v>
       </c>
       <c r="I21" s="4" t="n">
-        <f aca="false">G21-F21-I20</f>
-        <v>927600</v>
+        <f aca="false">H21-H20</f>
+        <v>194125</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <f aca="false">EDATE(J20,(E21-E20))</f>
+        <v>45266</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="7" t="n">
         <f aca="false">P21*0.015</f>
         <v>90</v>
       </c>
@@ -1599,20 +1701,24 @@
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">P23*$S$3+Q23*$T$3+G21</f>
-        <v>3877300</v>
+        <v>3801175</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">G22-F22</f>
-        <v>1541669.21022398</v>
+        <v>1465544.21022398</v>
       </c>
       <c r="I22" s="4" t="n">
-        <f aca="false">G22-F22-I21</f>
-        <v>614069.21022398</v>
+        <f aca="false">H22-H21</f>
+        <v>148450</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">EDATE(J21,(E22-E21))</f>
+        <v>45297</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>5500</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="Q22" s="7" t="n">
         <f aca="false">P22*0.015</f>
         <v>82.5</v>
       </c>
@@ -1627,22 +1733,26 @@
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">P24*$S$3+Q24*$T$3+G22</f>
-        <v>4110750</v>
+        <v>4060000</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">G23-F23</f>
-        <v>1690119.21022398</v>
+        <v>1639369.21022398</v>
       </c>
       <c r="I23" s="4" t="n">
-        <f aca="false">G23-F23-I22</f>
-        <v>1076050</v>
+        <f aca="false">H23-H22</f>
+        <v>173825</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">EDATE(J22,(E23-E22))</f>
+        <v>45328</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q23" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q23" s="7" t="n">
         <f aca="false">P23*0.015</f>
-        <v>91.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,27 +1765,31 @@
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">P25*$S$3+Q25*$T$3+G23</f>
-        <v>4369575</v>
+        <v>4364500</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">G24-F24</f>
-        <v>1863944.21022398</v>
+        <v>1858869.21022398</v>
       </c>
       <c r="I24" s="4" t="n">
-        <f aca="false">G24-F24-I23</f>
-        <v>787894.21022398</v>
+        <f aca="false">H24-H23</f>
+        <v>219500</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <f aca="false">EDATE(J23,(E24-E23))</f>
+        <v>45357</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q24" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q24" s="7" t="n">
         <f aca="false">P24*0.015</f>
-        <v>69</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">POWER((1+B17),B26)</f>
@@ -1690,27 +1804,31 @@
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">P26*$S$3+Q26*$T$3+G24</f>
-        <v>4674075</v>
+        <v>4669000</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">G25-F25</f>
-        <v>2083444.21022398</v>
+        <v>2078369.21022398</v>
       </c>
       <c r="I25" s="4" t="n">
-        <f aca="false">G25-F25-I24</f>
-        <v>1295550</v>
+        <f aca="false">H25-H24</f>
+        <v>219500</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">EDATE(J24,(E25-E24))</f>
+        <v>45388</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q25" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q25" s="7" t="n">
         <f aca="false">P25*0.015</f>
-        <v>76.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">N7/12</f>
@@ -1725,20 +1843,24 @@
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">P27*$S$3+Q27*$T$3+G25</f>
-        <v>4983650</v>
+        <v>4948125</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">G26-F26</f>
-        <v>2308019.21022398</v>
+        <v>2272494.21022398</v>
       </c>
       <c r="I26" s="4" t="n">
-        <f aca="false">G26-F26-I25</f>
-        <v>1012469.21022398</v>
+        <f aca="false">H26-H25</f>
+        <v>194125</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <f aca="false">EDATE(J25,(E26-E25))</f>
+        <v>45418</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="Q26" s="7" t="n">
         <f aca="false">P26*0.015</f>
         <v>90</v>
       </c>
@@ -1753,22 +1875,26 @@
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">P28*$S$3+Q28*$T$3+G26</f>
-        <v>5278000</v>
+        <v>5257700</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">G27-F27</f>
-        <v>2517369.21022398</v>
+        <v>2497069.21022398</v>
       </c>
       <c r="I27" s="4" t="n">
-        <f aca="false">G27-F27-I26</f>
-        <v>1504900</v>
+        <f aca="false">H27-H26</f>
+        <v>224575</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <f aca="false">EDATE(J26,(E27-E26))</f>
+        <v>45449</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q27" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q27" s="7" t="n">
         <f aca="false">P27*0.015</f>
-        <v>91.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,22 +1907,26 @@
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">P29*$S$3+Q29*$T$3+G27</f>
-        <v>5602800</v>
+        <v>5511450</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">G28-F28</f>
-        <v>2757169.21022398</v>
+        <v>2665819.21022398</v>
       </c>
       <c r="I28" s="4" t="n">
-        <f aca="false">G28-F28-I27</f>
-        <v>1252269.21022398</v>
+        <f aca="false">H28-H27</f>
+        <v>168750</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <f aca="false">EDATE(J27,(E28-E27))</f>
+        <v>45479</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q28" s="6" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q28" s="7" t="n">
         <f aca="false">P28*0.015</f>
-        <v>87</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,28 +1939,32 @@
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">P30*$S$3+Q30*$T$3+G28</f>
-        <v>5897150</v>
+        <v>5744900</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">G29-F29</f>
-        <v>2966519.21022398</v>
+        <v>2814269.21022398</v>
       </c>
       <c r="I29" s="4" t="n">
-        <f aca="false">G29-F29-I28</f>
-        <v>1714250</v>
+        <f aca="false">H29-H28</f>
+        <v>148450</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <f aca="false">EDATE(J28,(E29-E28))</f>
+        <v>45510</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="13" t="n">
-        <v>6400</v>
-      </c>
-      <c r="Q29" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q29" s="7" t="n">
         <f aca="false">P29*0.015</f>
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,30 +1977,34 @@
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">P31*$S$3+Q31*$T$3+G29</f>
-        <v>6186425</v>
+        <v>6003725</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">G30-F30</f>
-        <v>3170794.21022398</v>
+        <v>2988094.21022398</v>
       </c>
       <c r="I30" s="4" t="n">
-        <f aca="false">G30-F30-I29</f>
-        <v>1456544.21022398</v>
+        <f aca="false">H30-H29</f>
+        <v>173825</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <f aca="false">EDATE(J29,(E30-E29))</f>
+        <v>45541</v>
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">SUM(P3:P83)</f>
-        <v>388000</v>
+        <v>402500</v>
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">SUM(Q3:Q83)</f>
-        <v>5820</v>
+        <v>6037.5</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q30" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q30" s="7" t="n">
         <f aca="false">P30*0.015</f>
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,22 +2017,26 @@
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">P32*$S$3+Q32*$T$3+G30</f>
-        <v>6328525</v>
+        <v>6308225</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">G31-F31</f>
-        <v>3227894.21022398</v>
+        <v>3207594.21022398</v>
       </c>
       <c r="I31" s="4" t="n">
-        <f aca="false">G31-F31-I30</f>
-        <v>1771350</v>
+        <f aca="false">H31-H30</f>
+        <v>219500</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <f aca="false">EDATE(J30,(E31-E30))</f>
+        <v>45571</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>5700</v>
-      </c>
-      <c r="Q31" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q31" s="7" t="n">
         <f aca="false">P31*0.015</f>
-        <v>85.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,22 +2049,26 @@
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">P33*$S$3+Q33*$T$3+G31</f>
-        <v>6445250</v>
+        <v>6612725</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">G32-F32</f>
-        <v>3259619.21022398</v>
+        <v>3427094.21022398</v>
       </c>
       <c r="I32" s="4" t="n">
-        <f aca="false">G32-F32-I31</f>
-        <v>1488269.21022398</v>
+        <f aca="false">H32-H31</f>
+        <v>219500</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <f aca="false">EDATE(J31,(E32-E31))</f>
+        <v>45602</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>2800</v>
-      </c>
-      <c r="Q32" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q32" s="7" t="n">
         <f aca="false">P32*0.015</f>
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,22 +2081,26 @@
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">P34*$S$3+Q34*$T$3+G32</f>
-        <v>6678700</v>
+        <v>6891850</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">G33-F33</f>
-        <v>3408069.21022398</v>
+        <v>3621219.21022398</v>
       </c>
       <c r="I33" s="4" t="n">
-        <f aca="false">G33-F33-I32</f>
-        <v>1919800</v>
+        <f aca="false">H33-H32</f>
+        <v>194125</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <f aca="false">EDATE(J32,(E33-E32))</f>
+        <v>45632</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>2300</v>
-      </c>
-      <c r="Q33" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q33" s="7" t="n">
         <f aca="false">P33*0.015</f>
-        <v>34.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,22 +2113,26 @@
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">P35*$S$3+Q35*$T$3+G33</f>
-        <v>6937525</v>
+        <v>7201425</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">G34-F34</f>
-        <v>3581894.21022398</v>
+        <v>3845794.21022398</v>
       </c>
       <c r="I34" s="4" t="n">
-        <f aca="false">G34-F34-I33</f>
-        <v>1662094.21022398</v>
+        <f aca="false">H34-H33</f>
+        <v>224575</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <f aca="false">EDATE(J33,(E34-E33))</f>
+        <v>45663</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q34" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q34" s="7" t="n">
         <f aca="false">P34*0.015</f>
-        <v>69</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,22 +2145,26 @@
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">P36*$S$3+Q36*$T$3+G34</f>
-        <v>7242025</v>
+        <v>7455175</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">G35-F35</f>
-        <v>3801394.21022398</v>
+        <v>4014544.21022398</v>
       </c>
       <c r="I35" s="4" t="n">
-        <f aca="false">G35-F35-I34</f>
-        <v>2139300</v>
+        <f aca="false">H35-H34</f>
+        <v>168750</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <f aca="false">EDATE(J34,(E35-E34))</f>
+        <v>45694</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q35" s="6" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q35" s="7" t="n">
         <f aca="false">P35*0.015</f>
-        <v>76.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,22 +2177,26 @@
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">P37*$S$3+Q37*$T$3+G35</f>
-        <v>7546525</v>
+        <v>7688625</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">G36-F36</f>
-        <v>4020894.21022398</v>
+        <v>4162994.21022398</v>
       </c>
       <c r="I36" s="4" t="n">
-        <f aca="false">G36-F36-I35</f>
-        <v>1881594.21022398</v>
+        <f aca="false">H36-H35</f>
+        <v>148450</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <f aca="false">EDATE(J35,(E36-E35))</f>
+        <v>45722</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q36" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q36" s="7" t="n">
         <f aca="false">P36*0.015</f>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,22 +2209,26 @@
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">P38*$S$3+Q38*$T$3+G36</f>
-        <v>7825650</v>
+        <v>7947450</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">G37-F37</f>
-        <v>4215019.21022398</v>
+        <v>4336819.21022398</v>
       </c>
       <c r="I37" s="4" t="n">
-        <f aca="false">G37-F37-I36</f>
-        <v>2333425</v>
+        <f aca="false">H37-H36</f>
+        <v>173825</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <f aca="false">EDATE(J36,(E37-E36))</f>
+        <v>45753</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q37" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q37" s="7" t="n">
         <f aca="false">P37*0.015</f>
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,22 +2241,26 @@
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">P39*$S$3+Q39*$T$3+G37</f>
-        <v>8135225</v>
+        <v>8251950</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">G38-F38</f>
-        <v>4439594.21022398</v>
+        <v>4556319.21022398</v>
       </c>
       <c r="I38" s="4" t="n">
-        <f aca="false">G38-F38-I37</f>
-        <v>2106169.21022398</v>
+        <f aca="false">H38-H37</f>
+        <v>219500</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <f aca="false">EDATE(J37,(E38-E37))</f>
+        <v>45783</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="Q38" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q38" s="7" t="n">
         <f aca="false">P38*0.015</f>
-        <v>82.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,22 +2273,26 @@
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">P40*$S$3+Q40*$T$3+G38</f>
-        <v>8368675</v>
+        <v>8556450</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">G39-F39</f>
-        <v>4588044.21022398</v>
+        <v>4775819.21022398</v>
       </c>
       <c r="I39" s="4" t="n">
-        <f aca="false">G39-F39-I38</f>
-        <v>2481875</v>
+        <f aca="false">H39-H38</f>
+        <v>219500</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <f aca="false">EDATE(J38,(E39-E38))</f>
+        <v>45814</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q39" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q39" s="7" t="n">
         <f aca="false">P39*0.015</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,22 +2305,26 @@
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">P41*$S$3+Q41*$T$3+G39</f>
-        <v>8627500</v>
+        <v>8835575</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">G40-F40</f>
-        <v>4761869.21022398</v>
+        <v>4969944.21022398</v>
       </c>
       <c r="I40" s="4" t="n">
-        <f aca="false">G40-F40-I39</f>
-        <v>2279994.21022398</v>
+        <f aca="false">H40-H39</f>
+        <v>194125</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <f aca="false">EDATE(J39,(E40-E39))</f>
+        <v>45844</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q40" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q40" s="7" t="n">
         <f aca="false">P40*0.015</f>
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,22 +2337,26 @@
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">P42*$S$3+Q42*$T$3+G40</f>
-        <v>8932000</v>
+        <v>9069025</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">G41-F41</f>
-        <v>4981369.21022398</v>
+        <v>5118394.21022398</v>
       </c>
       <c r="I41" s="4" t="n">
-        <f aca="false">G41-F41-I40</f>
-        <v>2701375</v>
+        <f aca="false">H41-H40</f>
+        <v>148450</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <f aca="false">EDATE(J40,(E41-E40))</f>
+        <v>45875</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q41" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q41" s="7" t="n">
         <f aca="false">P41*0.015</f>
-        <v>76.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,22 +2369,26 @@
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">P43*$S$3+Q43*$T$3+G41</f>
-        <v>9241575</v>
+        <v>9327850</v>
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">G42-F42</f>
-        <v>5205944.21022398</v>
+        <v>5292219.21022398</v>
       </c>
       <c r="I42" s="4" t="n">
-        <f aca="false">G42-F42-I41</f>
-        <v>2504569.21022398</v>
+        <f aca="false">H42-H41</f>
+        <v>173825</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <f aca="false">EDATE(J41,(E42-E41))</f>
+        <v>45906</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q42" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q42" s="7" t="n">
         <f aca="false">P42*0.015</f>
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,22 +2401,26 @@
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">P44*$S$3+Q44*$T$3+G42</f>
-        <v>9535925</v>
+        <v>9632350</v>
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">G43-F43</f>
-        <v>5415294.21022398</v>
+        <v>5511719.21022398</v>
       </c>
       <c r="I43" s="4" t="n">
-        <f aca="false">G43-F43-I42</f>
-        <v>2910725</v>
+        <f aca="false">H43-H42</f>
+        <v>219500</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <f aca="false">EDATE(J42,(E43-E42))</f>
+        <v>45936</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q43" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q43" s="7" t="n">
         <f aca="false">P43*0.015</f>
-        <v>91.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,22 +2433,26 @@
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">P45*$S$3+Q45*$T$3+G43</f>
-        <v>9860725</v>
+        <v>9865800</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">G44-F44</f>
-        <v>5655094.21022398</v>
+        <v>5660169.21022398</v>
       </c>
       <c r="I44" s="4" t="n">
-        <f aca="false">G44-F44-I43</f>
-        <v>2744369.21022398</v>
+        <f aca="false">H44-H43</f>
+        <v>148450</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <f aca="false">EDATE(J43,(E44-E43))</f>
+        <v>45967</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q44" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q44" s="7" t="n">
         <f aca="false">P44*0.015</f>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,22 +2465,26 @@
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">P46*$S$3+Q46*$T$3+G44</f>
-        <v>10155075</v>
+        <v>10124625</v>
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">G45-F45</f>
-        <v>5864444.21022398</v>
+        <v>5833994.21022398</v>
       </c>
       <c r="I45" s="4" t="n">
-        <f aca="false">G45-F45-I44</f>
-        <v>3120075</v>
-      </c>
-      <c r="P45" s="13" t="n">
-        <v>6400</v>
-      </c>
-      <c r="Q45" s="6" t="n">
+        <f aca="false">H45-H44</f>
+        <v>173825</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <f aca="false">EDATE(J44,(E45-E44))</f>
+        <v>45997</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q45" s="7" t="n">
         <f aca="false">P45*0.015</f>
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,22 +2497,26 @@
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">P47*$S$3+Q47*$T$3+G45</f>
-        <v>10444350</v>
+        <v>10429125</v>
       </c>
       <c r="H46" s="4" t="n">
         <f aca="false">G46-F46</f>
-        <v>6068719.21022398</v>
+        <v>6053494.21022398</v>
       </c>
       <c r="I46" s="4" t="n">
-        <f aca="false">G46-F46-I45</f>
-        <v>2948644.21022398</v>
+        <f aca="false">H46-H45</f>
+        <v>219500</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <f aca="false">EDATE(J45,(E46-E45))</f>
+        <v>46028</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q46" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q46" s="7" t="n">
         <f aca="false">P46*0.015</f>
-        <v>87</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,22 +2529,26 @@
       </c>
       <c r="G47" s="4" t="n">
         <f aca="false">P48*$S$3+Q48*$T$3+G46</f>
-        <v>10586450</v>
+        <v>10733625</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">G47-F47</f>
-        <v>6125819.21022398</v>
+        <v>6272994.21022398</v>
       </c>
       <c r="I47" s="4" t="n">
-        <f aca="false">G47-F47-I46</f>
-        <v>3177175</v>
+        <f aca="false">H47-H46</f>
+        <v>219500</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <f aca="false">EDATE(J46,(E47-E46))</f>
+        <v>46059</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>5700</v>
-      </c>
-      <c r="Q47" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q47" s="7" t="n">
         <f aca="false">P47*0.015</f>
-        <v>85.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,23 +2560,27 @@
         <v>4545630.78977602</v>
       </c>
       <c r="G48" s="4" t="n">
-        <f aca="false">L49*$S$3+M49*$T$3+G47</f>
-        <v>10586450</v>
+        <f aca="false">P49*$S$3+Q49*$T$3+G47</f>
+        <v>11012750</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">G48-F48</f>
-        <v>6040819.21022398</v>
+        <v>6467119.21022398</v>
       </c>
       <c r="I48" s="4" t="n">
-        <f aca="false">G48-F48-I47</f>
-        <v>2863644.21022398</v>
+        <f aca="false">H48-H47</f>
+        <v>194125</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <f aca="false">EDATE(J47,(E48-E47))</f>
+        <v>46087</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>2800</v>
-      </c>
-      <c r="Q48" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q48" s="7" t="n">
         <f aca="false">P48*0.015</f>
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,23 +2592,27 @@
         <v>4630630.78977602</v>
       </c>
       <c r="G49" s="4" t="n">
-        <f aca="false">L50*$S$3+M50*$T$3+G48</f>
-        <v>10586450</v>
+        <f aca="false">P50*$S$3+Q50*$T$3+G48</f>
+        <v>11246200</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">G49-F49</f>
-        <v>5955819.21022398</v>
+        <v>6615569.21022398</v>
       </c>
       <c r="I49" s="4" t="n">
-        <f aca="false">G49-F49-I48</f>
-        <v>3092175</v>
+        <f aca="false">H49-H48</f>
+        <v>148450</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <f aca="false">EDATE(J48,(E49-E48))</f>
+        <v>46118</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>2300</v>
-      </c>
-      <c r="Q49" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q49" s="7" t="n">
         <f aca="false">P49*0.015</f>
-        <v>34.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,21 +2624,25 @@
         <v>4715630.78977602</v>
       </c>
       <c r="G50" s="4" t="n">
-        <f aca="false">L51*$S$3+M51*$T$3+G49</f>
-        <v>10586450</v>
+        <f aca="false">P51*$S$3+Q51*$T$3+G49</f>
+        <v>11505025</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">G50-F50</f>
-        <v>5870819.21022398</v>
+        <v>6789394.21022398</v>
       </c>
       <c r="I50" s="4" t="n">
-        <f aca="false">G50-F50-I49</f>
-        <v>2778644.21022398</v>
+        <f aca="false">H50-H49</f>
+        <v>173825</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <f aca="false">EDATE(J49,(E50-E49))</f>
+        <v>46148</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>4600</v>
       </c>
-      <c r="Q50" s="6" t="n">
+      <c r="Q50" s="7" t="n">
         <f aca="false">P50*0.015</f>
         <v>69</v>
       </c>
@@ -2438,21 +2656,25 @@
         <v>4800630.78977602</v>
       </c>
       <c r="G51" s="4" t="n">
-        <f aca="false">L52*$S$3+M52*$T$3+G50</f>
-        <v>10586450</v>
+        <f aca="false">P52*$S$3+Q52*$T$3+G50</f>
+        <v>11809525</v>
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">G51-F51</f>
-        <v>5785819.21022398</v>
+        <v>7008894.21022398</v>
       </c>
       <c r="I51" s="4" t="n">
-        <f aca="false">G51-F51-I50</f>
-        <v>3007175</v>
+        <f aca="false">H51-H50</f>
+        <v>219500</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <f aca="false">EDATE(J50,(E51-E50))</f>
+        <v>46179</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>5100</v>
       </c>
-      <c r="Q51" s="6" t="n">
+      <c r="Q51" s="7" t="n">
         <f aca="false">P51*0.015</f>
         <v>76.5</v>
       </c>
@@ -2466,21 +2688,25 @@
         <v>4885630.78977602</v>
       </c>
       <c r="G52" s="4" t="n">
-        <f aca="false">L53*$S$3+M53*$T$3+G51</f>
-        <v>10586450</v>
+        <f aca="false">P53*$S$3+Q53*$T$3+G51</f>
+        <v>12114025</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">G52-F52</f>
-        <v>5700819.21022398</v>
+        <v>7228394.21022398</v>
       </c>
       <c r="I52" s="4" t="n">
-        <f aca="false">G52-F52-I51</f>
-        <v>2693644.21022398</v>
+        <f aca="false">H52-H51</f>
+        <v>219500</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <f aca="false">EDATE(J51,(E52-E51))</f>
+        <v>46209</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q52" s="6" t="n">
+      <c r="Q52" s="7" t="n">
         <f aca="false">P52*0.015</f>
         <v>90</v>
       </c>
@@ -2494,21 +2720,25 @@
         <v>4970630.78977602</v>
       </c>
       <c r="G53" s="4" t="n">
-        <f aca="false">L54*$S$3+M54*$T$3+G52</f>
-        <v>10586450</v>
+        <f aca="false">P54*$S$3+Q54*$T$3+G52</f>
+        <v>12393150</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">G53-F53</f>
-        <v>5615819.21022398</v>
+        <v>7422519.21022398</v>
       </c>
       <c r="I53" s="4" t="n">
-        <f aca="false">G53-F53-I52</f>
-        <v>2922175</v>
+        <f aca="false">H53-H52</f>
+        <v>194125</v>
+      </c>
+      <c r="J53" s="5" t="n">
+        <f aca="false">EDATE(J52,(E53-E52))</f>
+        <v>46240</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="Q53" s="6" t="n">
+      <c r="Q53" s="7" t="n">
         <f aca="false">P53*0.015</f>
         <v>90</v>
       </c>
@@ -2522,21 +2752,25 @@
         <v>5055630.78977602</v>
       </c>
       <c r="G54" s="4" t="n">
-        <f aca="false">L55*$S$3+M55*$T$3+G53</f>
-        <v>10586450</v>
+        <f aca="false">P55*$S$3+Q55*$T$3+G53</f>
+        <v>12626600</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">G54-F54</f>
-        <v>5530819.21022398</v>
+        <v>7570969.21022398</v>
       </c>
       <c r="I54" s="4" t="n">
-        <f aca="false">G54-F54-I53</f>
-        <v>2608644.21022398</v>
+        <f aca="false">H54-H53</f>
+        <v>148450</v>
+      </c>
+      <c r="J54" s="5" t="n">
+        <f aca="false">EDATE(J53,(E54-E53))</f>
+        <v>46271</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>5500</v>
       </c>
-      <c r="Q54" s="6" t="n">
+      <c r="Q54" s="7" t="n">
         <f aca="false">P54*0.015</f>
         <v>82.5</v>
       </c>
@@ -2550,23 +2784,27 @@
         <v>5140630.78977602</v>
       </c>
       <c r="G55" s="4" t="n">
-        <f aca="false">L56*$S$3+M56*$T$3+G54</f>
-        <v>10586450</v>
+        <f aca="false">P56*$S$3+Q56*$T$3+G54</f>
+        <v>12885425</v>
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">G55-F55</f>
-        <v>5445819.21022398</v>
+        <v>7744794.21022398</v>
       </c>
       <c r="I55" s="4" t="n">
-        <f aca="false">G55-F55-I54</f>
-        <v>2837175</v>
+        <f aca="false">H55-H54</f>
+        <v>173825</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <f aca="false">EDATE(J54,(E55-E54))</f>
+        <v>46301</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q55" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q55" s="7" t="n">
         <f aca="false">P55*0.015</f>
-        <v>91.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,23 +2816,27 @@
         <v>5225630.78977602</v>
       </c>
       <c r="G56" s="4" t="n">
-        <f aca="false">L57*$S$3+M57*$T$3+G55</f>
-        <v>10586450</v>
+        <f aca="false">P57*$S$3+Q57*$T$3+G55</f>
+        <v>13189925</v>
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">G56-F56</f>
-        <v>5360819.21022398</v>
+        <v>7964294.21022398</v>
       </c>
       <c r="I56" s="4" t="n">
-        <f aca="false">G56-F56-I55</f>
-        <v>2523644.21022398</v>
+        <f aca="false">H56-H55</f>
+        <v>219500</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <f aca="false">EDATE(J55,(E56-E55))</f>
+        <v>46332</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="Q56" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q56" s="7" t="n">
         <f aca="false">P56*0.015</f>
-        <v>82.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,23 +2848,27 @@
         <v>5310630.78977602</v>
       </c>
       <c r="G57" s="4" t="n">
-        <f aca="false">L58*$S$3+M58*$T$3+G56</f>
-        <v>10586450</v>
+        <f aca="false">P58*$S$3+Q58*$T$3+G56</f>
+        <v>13494425</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">G57-F57</f>
-        <v>5275819.21022398</v>
+        <v>8183794.21022398</v>
       </c>
       <c r="I57" s="4" t="n">
-        <f aca="false">G57-F57-I56</f>
-        <v>2752175</v>
+        <f aca="false">H57-H56</f>
+        <v>219500</v>
+      </c>
+      <c r="J57" s="5" t="n">
+        <f aca="false">EDATE(J56,(E57-E56))</f>
+        <v>46362</v>
       </c>
       <c r="P57" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q57" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q57" s="7" t="n">
         <f aca="false">P57*0.015</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,23 +2880,27 @@
         <v>5395630.78977602</v>
       </c>
       <c r="G58" s="4" t="n">
-        <f aca="false">L59*$S$3+M59*$T$3+G57</f>
-        <v>10586450</v>
+        <f aca="false">P59*$S$3+Q59*$T$3+G57</f>
+        <v>13727875</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">G58-F58</f>
-        <v>5190819.21022398</v>
+        <v>8332244.21022398</v>
       </c>
       <c r="I58" s="4" t="n">
-        <f aca="false">G58-F58-I57</f>
-        <v>2438644.21022398</v>
+        <f aca="false">H58-H57</f>
+        <v>148450</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <f aca="false">EDATE(J57,(E58-E57))</f>
+        <v>46393</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q58" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q58" s="7" t="n">
         <f aca="false">P58*0.015</f>
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,23 +2912,27 @@
         <v>5480630.78977602</v>
       </c>
       <c r="G59" s="4" t="n">
-        <f aca="false">L60*$S$3+M60*$T$3+G58</f>
-        <v>10586450</v>
+        <f aca="false">P60*$S$3+Q60*$T$3+G58</f>
+        <v>13986700</v>
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">G59-F59</f>
-        <v>5105819.21022398</v>
+        <v>8506069.21022398</v>
       </c>
       <c r="I59" s="4" t="n">
-        <f aca="false">G59-F59-I58</f>
-        <v>2667175</v>
+        <f aca="false">H59-H58</f>
+        <v>173825</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <f aca="false">EDATE(J58,(E59-E58))</f>
+        <v>46424</v>
       </c>
       <c r="P59" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q59" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q59" s="7" t="n">
         <f aca="false">P59*0.015</f>
-        <v>76.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,23 +2944,27 @@
         <v>5565630.78977602</v>
       </c>
       <c r="G60" s="4" t="n">
-        <f aca="false">L61*$S$3+M61*$T$3+G59</f>
-        <v>10586450</v>
+        <f aca="false">P61*$S$3+Q61*$T$3+G59</f>
+        <v>14291200</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">G60-F60</f>
-        <v>5020819.21022398</v>
+        <v>8725569.21022398</v>
       </c>
       <c r="I60" s="4" t="n">
-        <f aca="false">G60-F60-I59</f>
-        <v>2353644.21022398</v>
+        <f aca="false">H60-H59</f>
+        <v>219500</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <f aca="false">EDATE(J59,(E60-E59))</f>
+        <v>46452</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q60" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q60" s="7" t="n">
         <f aca="false">P60*0.015</f>
-        <v>90</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,84 +2976,88 @@
         <v>5650630.78977602</v>
       </c>
       <c r="G61" s="4" t="n">
-        <f aca="false">L62*$S$3+M62*$T$3+G60</f>
-        <v>10586450</v>
+        <f aca="false">P62*$S$3+Q62*$T$3+G60</f>
+        <v>14595700</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">G61-F61</f>
-        <v>4935819.21022398</v>
+        <v>8945069.21022398</v>
       </c>
       <c r="I61" s="4" t="n">
-        <f aca="false">G61-F61-I60</f>
-        <v>2582175</v>
+        <f aca="false">H61-H60</f>
+        <v>219500</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <f aca="false">EDATE(J60,(E61-E60))</f>
+        <v>46483</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q61" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q61" s="7" t="n">
         <f aca="false">P61*0.015</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P62" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q62" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q62" s="7" t="n">
         <f aca="false">P62*0.015</f>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P63" s="13" t="n">
-        <v>6400</v>
-      </c>
-      <c r="Q63" s="6" t="n">
+      <c r="P63" s="0" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q63" s="7" t="n">
         <f aca="false">P63*0.015</f>
-        <v>96</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P64" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q64" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q64" s="7" t="n">
         <f aca="false">P64*0.015</f>
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P65" s="0" t="n">
-        <v>5700</v>
-      </c>
-      <c r="Q65" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q65" s="7" t="n">
         <f aca="false">P65*0.015</f>
-        <v>85.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P66" s="0" t="n">
-        <v>2800</v>
-      </c>
-      <c r="Q66" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q66" s="7" t="n">
         <f aca="false">P66*0.015</f>
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P67" s="0" t="n">
-        <v>2300</v>
-      </c>
-      <c r="Q67" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q67" s="7" t="n">
         <f aca="false">P67*0.015</f>
-        <v>34.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P68" s="0" t="n">
         <v>4600</v>
       </c>
-      <c r="Q68" s="6" t="n">
+      <c r="Q68" s="7" t="n">
         <f aca="false">P68*0.015</f>
         <v>69</v>
       </c>
@@ -2804,193 +3066,193 @@
       <c r="P69" s="0" t="n">
         <v>5100</v>
       </c>
-      <c r="Q69" s="6" t="n">
+      <c r="Q69" s="7" t="n">
         <f aca="false">P69*0.015</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P70" s="0" t="n">
-        <v>5500</v>
-      </c>
-      <c r="Q70" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q70" s="7" t="n">
         <f aca="false">P70*0.015</f>
-        <v>82.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P71" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q71" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q71" s="7" t="n">
         <f aca="false">P71*0.015</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P72" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q72" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q72" s="7" t="n">
         <f aca="false">P72*0.015</f>
-        <v>69</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P73" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q73" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q73" s="7" t="n">
         <f aca="false">P73*0.015</f>
-        <v>76.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P74" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q74" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q74" s="7" t="n">
         <f aca="false">P74*0.015</f>
-        <v>90</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P75" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="Q75" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q75" s="7" t="n">
         <f aca="false">P75*0.015</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P76" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q76" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q76" s="7" t="n">
         <f aca="false">P76*0.015</f>
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P77" s="13" t="n">
-        <v>6400</v>
-      </c>
-      <c r="Q77" s="6" t="n">
+      <c r="P77" s="0" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q77" s="7" t="n">
         <f aca="false">P77*0.015</f>
-        <v>96</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P78" s="0" t="n">
-        <v>5800</v>
-      </c>
-      <c r="Q78" s="6" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q78" s="7" t="n">
         <f aca="false">P78*0.015</f>
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P79" s="0" t="n">
-        <v>5700</v>
-      </c>
-      <c r="Q79" s="6" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q79" s="7" t="n">
         <f aca="false">P79*0.015</f>
-        <v>85.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P80" s="0" t="n">
-        <v>2800</v>
-      </c>
-      <c r="Q80" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q80" s="7" t="n">
         <f aca="false">P80*0.015</f>
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P81" s="0" t="n">
-        <v>2300</v>
-      </c>
-      <c r="Q81" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q81" s="7" t="n">
         <f aca="false">P81*0.015</f>
-        <v>34.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P82" s="0" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q82" s="6" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q82" s="7" t="n">
         <f aca="false">P82*0.015</f>
-        <v>69</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P83" s="0" t="n">
-        <v>5100</v>
-      </c>
-      <c r="Q83" s="6" t="n">
+        <v>6100</v>
+      </c>
+      <c r="Q83" s="7" t="n">
         <f aca="false">P83*0.015</f>
-        <v>76.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q84" s="6"/>
+      <c r="Q84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q85" s="6"/>
+      <c r="Q85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q86" s="6"/>
+      <c r="Q86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q87" s="6"/>
+      <c r="Q87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q88" s="6"/>
+      <c r="Q88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q90" s="6"/>
+      <c r="Q90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="6"/>
+      <c r="Q91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="6"/>
+      <c r="Q92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q93" s="6"/>
+      <c r="Q93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q94" s="6"/>
+      <c r="Q94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q95" s="6"/>
+      <c r="Q95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q96" s="6"/>
+      <c r="Q96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q97" s="6"/>
+      <c r="Q97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q98" s="6"/>
+      <c r="Q98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q99" s="6"/>
+      <c r="Q99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q100" s="6"/>
+      <c r="Q100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q101" s="6"/>
+      <c r="Q101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q102" s="6"/>
+      <c r="Q102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Экономика/biznes plan rascheti.xlsx
+++ b/Экономика/biznes plan rascheti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">Оборудование</t>
   </si>
@@ -106,16 +106,28 @@
     <t xml:space="preserve">ВНД</t>
   </si>
   <si>
+    <t xml:space="preserve">СО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">год (первая прибыль)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая сумма задолженности / сумму кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЭИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумма покупок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумма подписок</t>
+  </si>
+  <si>
     <t xml:space="preserve">(1+d)^t</t>
   </si>
   <si>
     <t xml:space="preserve">Количество лет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сумма покупок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сумма подписок</t>
   </si>
 </sst>
 </file>
@@ -346,7 +358,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -696,11 +708,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83674295"/>
-        <c:axId val="92623352"/>
+        <c:axId val="66803872"/>
+        <c:axId val="89238833"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83674295"/>
+        <c:axId val="66803872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +744,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92623352"/>
+        <c:crossAx val="89238833"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92623352"/>
+        <c:axId val="89238833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83674295"/>
+        <c:crossAx val="66803872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,7 +886,7 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,8 +1548,8 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="n">
-        <f aca="false">H26-B17*H26</f>
-        <v>2045244.78920158</v>
+        <f aca="false">H61-B17*H61</f>
+        <v>8050562.28920158</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>17</v>
@@ -1579,7 +1591,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="12" t="n">
-        <f aca="false">B13*POWER((1+B17),B26)</f>
+        <f aca="false">B13*POWER((1+B17),B33)</f>
         <v>2465690.81</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -1618,7 +1630,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="13" t="n">
-        <f aca="false">(H61/B25)/B13</f>
+        <f aca="false">(H61/B32)/B13</f>
         <v>3.62781463675244</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -1692,6 +1704,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="0" t="n">
         <v>21</v>
       </c>
@@ -1715,6 +1736,9 @@
         <f aca="false">EDATE(J21,(E22-E21))</f>
         <v>45297</v>
       </c>
+      <c r="N22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P22" s="0" t="n">
         <v>5500</v>
       </c>
@@ -1724,6 +1748,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <f aca="false">SUM(I5:I16)/B13</f>
+        <v>0.674281515349445</v>
+      </c>
       <c r="E23" s="0" t="n">
         <v>22</v>
       </c>
@@ -1747,6 +1778,10 @@
         <f aca="false">EDATE(J22,(E23-E22))</f>
         <v>45328</v>
       </c>
+      <c r="N23" s="13" t="n">
+        <f aca="false">N18/B13</f>
+        <v>1.55313349873364</v>
+      </c>
       <c r="P23" s="0" t="n">
         <v>4600</v>
       </c>
@@ -1788,13 +1823,6 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">POWER((1+B17),B26)</f>
-        <v>1.61051</v>
-      </c>
       <c r="E25" s="0" t="n">
         <v>24</v>
       </c>
@@ -1827,13 +1855,6 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">N7/12</f>
-        <v>5</v>
-      </c>
       <c r="E26" s="0" t="n">
         <v>25</v>
       </c>
@@ -1954,10 +1975,10 @@
         <v>45510</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>5000</v>
@@ -2040,6 +2061,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">POWER((1+B17),B33)</f>
+        <v>1.61051</v>
+      </c>
       <c r="E32" s="0" t="n">
         <v>31</v>
       </c>
@@ -2072,6 +2100,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">N7/12</f>
+        <v>5</v>
+      </c>
       <c r="E33" s="0" t="n">
         <v>32</v>
       </c>

--- a/Экономика/biznes plan rascheti.xlsx
+++ b/Экономика/biznes plan rascheti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t xml:space="preserve">Оборудование</t>
   </si>
@@ -144,6 +144,340 @@
   <si>
     <t xml:space="preserve">После ежемесячной выплаты</t>
   </si>
+  <si>
+    <t xml:space="preserve">PERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптимистичные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пессимистичные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наиболее вероятные</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">E 95% = E + 2 * СКО =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка ТЗ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Е = Σ(Е</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">СКО = √(Σ(СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)) = </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование архитектуры ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование пользовательского интерфейса</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ 4 * M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)/6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование веб-страницы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">СКО</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)/6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование пользовательского интерфейса мобильной версии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проектирование базы данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация архитектуры ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация веб-страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация пользовательского интерфейса мобильной версии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация базы данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-end разработка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Альфа-тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бета-тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка документации</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +496,7 @@
     <numFmt numFmtId="173" formatCode="#\ ##0\ [$р.-419];[RED]\-#\ ##0\ [$р.-419]"/>
     <numFmt numFmtId="174" formatCode="#\ ##0.00\ [$р.-419];[RED]\-#\ ##0.00\ [$р.-419]"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -192,6 +526,28 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -204,20 +560,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -246,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +676,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,6 +713,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -379,7 +785,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -729,11 +1135,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68321777"/>
-        <c:axId val="88400317"/>
+        <c:axId val="60749152"/>
+        <c:axId val="58080124"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68321777"/>
+        <c:axId val="60749152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +1171,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88400317"/>
+        <c:crossAx val="58080124"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88400317"/>
+        <c:axId val="58080124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +1218,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68321777"/>
+        <c:crossAx val="60749152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,7 +1270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1418,17 +1824,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="31830889"/>
-        <c:axId val="133346"/>
+        <c:axId val="34253808"/>
+        <c:axId val="13425439"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31830889"/>
+        <c:axId val="34253808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1454,7 +1860,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133346"/>
+        <c:crossAx val="13425439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133346"/>
+        <c:axId val="13425439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1907,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31830889"/>
+        <c:crossAx val="34253808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,7 +1972,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>616680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1574,8 +1980,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28515960" y="6184800"/>
-        <a:ext cx="4560120" cy="2488320"/>
+        <a:off x="25180920" y="6194880"/>
+        <a:ext cx="4566240" cy="2487960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1594,9 +2000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>887400</xdr:colOff>
+      <xdr:colOff>887040</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1604,8 +2010,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2296440" y="18761400"/>
-        <a:ext cx="4560480" cy="2669400"/>
+        <a:off x="2417040" y="18771840"/>
+        <a:ext cx="4561560" cy="2669040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1623,23 +2029,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C159" activeCellId="0" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="29.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.54"/>
@@ -1714,7 +2121,7 @@
       </c>
       <c r="J2" s="5" t="n">
         <f aca="true">TODAY()</f>
-        <v>44687</v>
+        <v>44693</v>
       </c>
       <c r="K2" s="4"/>
       <c r="N2" s="0" t="s">
@@ -1763,8 +2170,8 @@
         <v>-40000</v>
       </c>
       <c r="J3" s="5" t="n">
-        <f aca="false">EDATE(J2,(E3-E2))</f>
-        <v>44718</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J2,(E3-E2))</f>
+        <v>44724</v>
       </c>
       <c r="K3" s="4"/>
       <c r="N3" s="4" t="n">
@@ -1809,8 +2216,8 @@
         <v>-40000</v>
       </c>
       <c r="J4" s="5" t="n">
-        <f aca="false">EDATE(J3,(E4-E3))</f>
-        <v>44748</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J3,(E4-E3))</f>
+        <v>44754</v>
       </c>
       <c r="K4" s="4"/>
       <c r="P4" s="0" t="n">
@@ -1848,8 +2255,8 @@
         <v>-214925</v>
       </c>
       <c r="J5" s="5" t="n">
-        <f aca="false">EDATE(J4,(E5-E4))</f>
-        <v>44779</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J4,(E5-E4))</f>
+        <v>44785</v>
       </c>
       <c r="K5" s="4"/>
       <c r="P5" s="0" t="n">
@@ -1883,8 +2290,8 @@
         <v>-69775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <f aca="false">EDATE(J5,(E6-E5))</f>
-        <v>44810</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J5,(E6-E5))</f>
+        <v>44816</v>
       </c>
       <c r="K6" s="4"/>
       <c r="N6" s="0" t="s">
@@ -1921,8 +2328,8 @@
         <v>-8875</v>
       </c>
       <c r="J7" s="5" t="n">
-        <f aca="false">EDATE(J6,(E7-E6))</f>
-        <v>44840</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J6,(E7-E6))</f>
+        <v>44846</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>60</v>
@@ -1958,8 +2365,8 @@
         <v>16500</v>
       </c>
       <c r="J8" s="5" t="n">
-        <f aca="false">EDATE(J7,(E8-E7))</f>
-        <v>44871</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J7,(E8-E7))</f>
+        <v>44877</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1500</v>
@@ -1992,8 +2399,8 @@
         <v>168750</v>
       </c>
       <c r="J9" s="5" t="n">
-        <f aca="false">EDATE(J8,(E9-E8))</f>
-        <v>44901</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J8,(E9-E8))</f>
+        <v>44907</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>2000</v>
@@ -2026,8 +2433,8 @@
         <v>219500</v>
       </c>
       <c r="J10" s="5" t="n">
-        <f aca="false">EDATE(J9,(E10-E9))</f>
-        <v>44932</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J9,(E10-E9))</f>
+        <v>44938</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>5000</v>
@@ -2058,8 +2465,8 @@
         <v>194125</v>
       </c>
       <c r="J11" s="5" t="n">
-        <f aca="false">EDATE(J10,(E11-E10))</f>
-        <v>44963</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J10,(E11-E10))</f>
+        <v>44969</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>20</v>
@@ -2093,8 +2500,8 @@
         <v>224575</v>
       </c>
       <c r="J12" s="5" t="n">
-        <f aca="false">EDATE(J11,(E12-E11))</f>
-        <v>44991</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J11,(E12-E11))</f>
+        <v>44997</v>
       </c>
       <c r="N12" s="9" t="n">
         <v>0.189</v>
@@ -2135,8 +2542,8 @@
         <v>209350</v>
       </c>
       <c r="J13" s="5" t="n">
-        <f aca="false">EDATE(J12,(E13-E12))</f>
-        <v>45022</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J12,(E13-E12))</f>
+        <v>45028</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>6100</v>
@@ -2169,8 +2576,8 @@
         <v>204275</v>
       </c>
       <c r="J14" s="5" t="n">
-        <f aca="false">EDATE(J13,(E14-E13))</f>
-        <v>45052</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J13,(E14-E13))</f>
+        <v>45058</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>5800</v>
@@ -2201,8 +2608,8 @@
         <v>57100</v>
       </c>
       <c r="J15" s="5" t="n">
-        <f aca="false">EDATE(J14,(E15-E14))</f>
-        <v>45083</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J14,(E15-E14))</f>
+        <v>45089</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>5700</v>
@@ -2233,8 +2640,8 @@
         <v>31725</v>
       </c>
       <c r="J16" s="5" t="n">
-        <f aca="false">EDATE(J15,(E16-E15))</f>
-        <v>45113</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J15,(E16-E15))</f>
+        <v>45119</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>22</v>
@@ -2274,8 +2681,8 @@
         <v>148450</v>
       </c>
       <c r="J17" s="5" t="n">
-        <f aca="false">EDATE(J16,(E17-E16))</f>
-        <v>45144</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J16,(E17-E16))</f>
+        <v>45150</v>
       </c>
       <c r="N17" s="8"/>
       <c r="P17" s="0" t="n">
@@ -2314,8 +2721,8 @@
         <v>173825</v>
       </c>
       <c r="J18" s="5" t="n">
-        <f aca="false">EDATE(J17,(E18-E17))</f>
-        <v>45175</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J17,(E18-E17))</f>
+        <v>45181</v>
       </c>
       <c r="N18" s="4" t="n">
         <f aca="false">N7*N3</f>
@@ -2357,8 +2764,8 @@
         <v>219500</v>
       </c>
       <c r="J19" s="5" t="n">
-        <f aca="false">EDATE(J18,(E19-E18))</f>
-        <v>45205</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J18,(E19-E18))</f>
+        <v>45211</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>5100</v>
@@ -2396,8 +2803,8 @@
         <v>219500</v>
       </c>
       <c r="J20" s="5" t="n">
-        <f aca="false">EDATE(J19,(E20-E19))</f>
-        <v>45236</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J19,(E20-E19))</f>
+        <v>45242</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>6000</v>
@@ -2412,7 +2819,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="9" t="n">
-        <f aca="false">XIRR(I2:I61,J2:J61)/12</f>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getXirr(I2:I61,J2:J61)/12</f>
         <v>0.211311961541102</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -2435,8 +2842,8 @@
         <v>194125</v>
       </c>
       <c r="J21" s="5" t="n">
-        <f aca="false">EDATE(J20,(E21-E20))</f>
-        <v>45266</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J20,(E21-E20))</f>
+        <v>45272</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>6000</v>
@@ -2476,8 +2883,8 @@
         <v>148450</v>
       </c>
       <c r="J22" s="5" t="n">
-        <f aca="false">EDATE(J21,(E22-E21))</f>
-        <v>45297</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J21,(E22-E21))</f>
+        <v>45303</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>30</v>
@@ -2518,8 +2925,8 @@
         <v>173825</v>
       </c>
       <c r="J23" s="5" t="n">
-        <f aca="false">EDATE(J22,(E23-E22))</f>
-        <v>45328</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J22,(E23-E22))</f>
+        <v>45334</v>
       </c>
       <c r="N23" s="13" t="n">
         <f aca="false">N18/B13</f>
@@ -2554,8 +2961,8 @@
         <v>219500</v>
       </c>
       <c r="J24" s="5" t="n">
-        <f aca="false">EDATE(J23,(E24-E23))</f>
-        <v>45357</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J23,(E24-E23))</f>
+        <v>45363</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>5100</v>
@@ -2586,8 +2993,8 @@
         <v>219500</v>
       </c>
       <c r="J25" s="5" t="n">
-        <f aca="false">EDATE(J24,(E25-E24))</f>
-        <v>45388</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J24,(E25-E24))</f>
+        <v>45394</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>6000</v>
@@ -2618,8 +3025,8 @@
         <v>194125</v>
       </c>
       <c r="J26" s="5" t="n">
-        <f aca="false">EDATE(J25,(E26-E25))</f>
-        <v>45418</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J25,(E26-E25))</f>
+        <v>45424</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>6000</v>
@@ -2650,8 +3057,8 @@
         <v>224575</v>
       </c>
       <c r="J27" s="5" t="n">
-        <f aca="false">EDATE(J26,(E27-E26))</f>
-        <v>45449</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J26,(E27-E26))</f>
+        <v>45455</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>5500</v>
@@ -2682,8 +3089,8 @@
         <v>168750</v>
       </c>
       <c r="J28" s="5" t="n">
-        <f aca="false">EDATE(J27,(E28-E27))</f>
-        <v>45479</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J27,(E28-E27))</f>
+        <v>45485</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>6100</v>
@@ -2714,8 +3121,8 @@
         <v>148450</v>
       </c>
       <c r="J29" s="5" t="n">
-        <f aca="false">EDATE(J28,(E29-E28))</f>
-        <v>45510</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J28,(E29-E28))</f>
+        <v>45516</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>32</v>
@@ -2752,8 +3159,8 @@
         <v>173825</v>
       </c>
       <c r="J30" s="5" t="n">
-        <f aca="false">EDATE(J29,(E30-E29))</f>
-        <v>45541</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J29,(E30-E29))</f>
+        <v>45547</v>
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">SUM(P3:P83)</f>
@@ -2792,8 +3199,8 @@
         <v>219500</v>
       </c>
       <c r="J31" s="5" t="n">
-        <f aca="false">EDATE(J30,(E31-E30))</f>
-        <v>45571</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J30,(E31-E30))</f>
+        <v>45577</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>5100</v>
@@ -2831,8 +3238,8 @@
         <v>219500</v>
       </c>
       <c r="J32" s="5" t="n">
-        <f aca="false">EDATE(J31,(E32-E31))</f>
-        <v>45602</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J31,(E32-E31))</f>
+        <v>45608</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>6000</v>
@@ -2870,8 +3277,8 @@
         <v>194125</v>
       </c>
       <c r="J33" s="5" t="n">
-        <f aca="false">EDATE(J32,(E33-E32))</f>
-        <v>45632</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J32,(E33-E32))</f>
+        <v>45638</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>6000</v>
@@ -2902,8 +3309,8 @@
         <v>224575</v>
       </c>
       <c r="J34" s="5" t="n">
-        <f aca="false">EDATE(J33,(E34-E33))</f>
-        <v>45663</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J33,(E34-E33))</f>
+        <v>45669</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>5500</v>
@@ -2934,8 +3341,8 @@
         <v>168750</v>
       </c>
       <c r="J35" s="5" t="n">
-        <f aca="false">EDATE(J34,(E35-E34))</f>
-        <v>45694</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J34,(E35-E34))</f>
+        <v>45700</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>6100</v>
@@ -2966,8 +3373,8 @@
         <v>148450</v>
       </c>
       <c r="J36" s="5" t="n">
-        <f aca="false">EDATE(J35,(E36-E35))</f>
-        <v>45722</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J35,(E36-E35))</f>
+        <v>45728</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>5000</v>
@@ -2998,8 +3405,8 @@
         <v>173825</v>
       </c>
       <c r="J37" s="5" t="n">
-        <f aca="false">EDATE(J36,(E37-E36))</f>
-        <v>45753</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J36,(E37-E36))</f>
+        <v>45759</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>4600</v>
@@ -3030,8 +3437,8 @@
         <v>219500</v>
       </c>
       <c r="J38" s="5" t="n">
-        <f aca="false">EDATE(J37,(E38-E37))</f>
-        <v>45783</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J37,(E38-E37))</f>
+        <v>45789</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>5100</v>
@@ -3062,8 +3469,8 @@
         <v>219500</v>
       </c>
       <c r="J39" s="5" t="n">
-        <f aca="false">EDATE(J38,(E39-E38))</f>
-        <v>45814</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J38,(E39-E38))</f>
+        <v>45820</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>6000</v>
@@ -3073,7 +3480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="n">
         <v>39</v>
       </c>
@@ -3094,8 +3501,8 @@
         <v>194125</v>
       </c>
       <c r="J40" s="5" t="n">
-        <f aca="false">EDATE(J39,(E40-E39))</f>
-        <v>45844</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J39,(E40-E39))</f>
+        <v>45850</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>6000</v>
@@ -3126,8 +3533,8 @@
         <v>148450</v>
       </c>
       <c r="J41" s="5" t="n">
-        <f aca="false">EDATE(J40,(E41-E40))</f>
-        <v>45875</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J40,(E41-E40))</f>
+        <v>45881</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>5500</v>
@@ -3158,8 +3565,8 @@
         <v>173825</v>
       </c>
       <c r="J42" s="5" t="n">
-        <f aca="false">EDATE(J41,(E42-E41))</f>
-        <v>45906</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J41,(E42-E41))</f>
+        <v>45912</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>4600</v>
@@ -3190,8 +3597,8 @@
         <v>219500</v>
       </c>
       <c r="J43" s="5" t="n">
-        <f aca="false">EDATE(J42,(E43-E42))</f>
-        <v>45936</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J42,(E43-E42))</f>
+        <v>45942</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>5100</v>
@@ -3222,8 +3629,8 @@
         <v>148450</v>
       </c>
       <c r="J44" s="5" t="n">
-        <f aca="false">EDATE(J43,(E44-E43))</f>
-        <v>45967</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J43,(E44-E43))</f>
+        <v>45973</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>6000</v>
@@ -3254,8 +3661,8 @@
         <v>173825</v>
       </c>
       <c r="J45" s="5" t="n">
-        <f aca="false">EDATE(J44,(E45-E44))</f>
-        <v>45997</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J44,(E45-E44))</f>
+        <v>46003</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>4600</v>
@@ -3286,8 +3693,8 @@
         <v>219500</v>
       </c>
       <c r="J46" s="5" t="n">
-        <f aca="false">EDATE(J45,(E46-E45))</f>
-        <v>46028</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J45,(E46-E45))</f>
+        <v>46034</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>5100</v>
@@ -3318,8 +3725,8 @@
         <v>219500</v>
       </c>
       <c r="J47" s="5" t="n">
-        <f aca="false">EDATE(J46,(E47-E46))</f>
-        <v>46059</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J46,(E47-E46))</f>
+        <v>46065</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>6000</v>
@@ -3350,8 +3757,8 @@
         <v>194125</v>
       </c>
       <c r="J48" s="5" t="n">
-        <f aca="false">EDATE(J47,(E48-E47))</f>
-        <v>46087</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J47,(E48-E47))</f>
+        <v>46093</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>6000</v>
@@ -3382,8 +3789,8 @@
         <v>148450</v>
       </c>
       <c r="J49" s="5" t="n">
-        <f aca="false">EDATE(J48,(E49-E48))</f>
-        <v>46118</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J48,(E49-E48))</f>
+        <v>46124</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>5500</v>
@@ -3414,8 +3821,8 @@
         <v>173825</v>
       </c>
       <c r="J50" s="5" t="n">
-        <f aca="false">EDATE(J49,(E50-E49))</f>
-        <v>46148</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J49,(E50-E49))</f>
+        <v>46154</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>4600</v>
@@ -3446,8 +3853,8 @@
         <v>219500</v>
       </c>
       <c r="J51" s="5" t="n">
-        <f aca="false">EDATE(J50,(E51-E50))</f>
-        <v>46179</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J50,(E51-E50))</f>
+        <v>46185</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>5100</v>
@@ -3478,8 +3885,8 @@
         <v>219500</v>
       </c>
       <c r="J52" s="5" t="n">
-        <f aca="false">EDATE(J51,(E52-E51))</f>
-        <v>46209</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J51,(E52-E51))</f>
+        <v>46215</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>6000</v>
@@ -3510,8 +3917,8 @@
         <v>194125</v>
       </c>
       <c r="J53" s="5" t="n">
-        <f aca="false">EDATE(J52,(E53-E52))</f>
-        <v>46240</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J52,(E53-E52))</f>
+        <v>46246</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>6000</v>
@@ -3542,8 +3949,8 @@
         <v>148450</v>
       </c>
       <c r="J54" s="5" t="n">
-        <f aca="false">EDATE(J53,(E54-E53))</f>
-        <v>46271</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J53,(E54-E53))</f>
+        <v>46277</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>5500</v>
@@ -3574,8 +3981,8 @@
         <v>173825</v>
       </c>
       <c r="J55" s="5" t="n">
-        <f aca="false">EDATE(J54,(E55-E54))</f>
-        <v>46301</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J54,(E55-E54))</f>
+        <v>46307</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>4600</v>
@@ -3606,8 +4013,8 @@
         <v>219500</v>
       </c>
       <c r="J56" s="5" t="n">
-        <f aca="false">EDATE(J55,(E56-E55))</f>
-        <v>46332</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J55,(E56-E55))</f>
+        <v>46338</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>5100</v>
@@ -3638,8 +4045,8 @@
         <v>219500</v>
       </c>
       <c r="J57" s="5" t="n">
-        <f aca="false">EDATE(J56,(E57-E56))</f>
-        <v>46362</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J56,(E57-E56))</f>
+        <v>46368</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>6000</v>
@@ -3670,8 +4077,8 @@
         <v>148450</v>
       </c>
       <c r="J58" s="5" t="n">
-        <f aca="false">EDATE(J57,(E58-E57))</f>
-        <v>46393</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J57,(E58-E57))</f>
+        <v>46399</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>6000</v>
@@ -3702,8 +4109,8 @@
         <v>173825</v>
       </c>
       <c r="J59" s="5" t="n">
-        <f aca="false">EDATE(J58,(E59-E58))</f>
-        <v>46424</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J58,(E59-E58))</f>
+        <v>46430</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>4600</v>
@@ -3734,8 +4141,8 @@
         <v>219500</v>
       </c>
       <c r="J60" s="5" t="n">
-        <f aca="false">EDATE(J59,(E60-E59))</f>
-        <v>46452</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J59,(E60-E59))</f>
+        <v>46458</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>5100</v>
@@ -3766,8 +4173,8 @@
         <v>219500</v>
       </c>
       <c r="J61" s="5" t="n">
-        <f aca="false">EDATE(J60,(E61-E60))</f>
-        <v>46483</v>
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getEdate(J60,(E61-E60))</f>
+        <v>46489</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>6000</v>
@@ -5899,6 +6306,412 @@
         <v>0</v>
       </c>
     </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="16"/>
+      <c r="G158" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K158" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B159" s="13" t="n">
+        <f aca="false">B160+2*B161</f>
+        <v>651.382783747338</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G159" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H159" s="19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I159" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J159" s="20" t="n">
+        <f aca="false">(H159+4*I159+G159)/6</f>
+        <v>20</v>
+      </c>
+      <c r="K159" s="20" t="n">
+        <f aca="false">(H159-G159)/6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="13" t="n">
+        <f aca="false">SUM(J159:J174)</f>
+        <v>639</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G160" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="H160" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="I160" s="19" t="n">
+        <v>76</v>
+      </c>
+      <c r="J160" s="20" t="n">
+        <f aca="false">(H160+4*I160+G160)/6</f>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="K160" s="20" t="n">
+        <f aca="false">(H160-G160)/6</f>
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" s="13" t="n">
+        <f aca="false">SQRT(SUM(K159:K174))</f>
+        <v>6.1913918736689</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G161" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H161" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I161" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="J161" s="20" t="n">
+        <f aca="false">(H161+4*I161+G161)/6</f>
+        <v>17.6666666666667</v>
+      </c>
+      <c r="K161" s="20" t="n">
+        <f aca="false">(H161-G161)/6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="34.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="13"/>
+      <c r="F162" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G162" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H162" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I162" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J162" s="20" t="n">
+        <f aca="false">(H162+4*I162+G162)/6</f>
+        <v>20</v>
+      </c>
+      <c r="K162" s="20" t="n">
+        <f aca="false">(H162-G162)/6</f>
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="F163" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G163" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H163" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I163" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J163" s="20" t="n">
+        <f aca="false">(H163+4*I163+G163)/6</f>
+        <v>19.3333333333333</v>
+      </c>
+      <c r="K163" s="20" t="n">
+        <f aca="false">(H163-G163)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="45.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="F164" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G164" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H164" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I164" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J164" s="20" t="n">
+        <f aca="false">(H164+4*I164+G164)/6</f>
+        <v>19.3333333333333</v>
+      </c>
+      <c r="K164" s="20" t="n">
+        <f aca="false">(H164-G164)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G165" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H165" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I165" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J165" s="20" t="n">
+        <f aca="false">(H165+4*I165+G165)/6</f>
+        <v>7.33333333333333</v>
+      </c>
+      <c r="K165" s="20" t="n">
+        <f aca="false">(H165-G165)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="19" t="n">
+        <v>44</v>
+      </c>
+      <c r="H166" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="I166" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="J166" s="20" t="n">
+        <f aca="false">(H166+4*I166+G166)/6</f>
+        <v>52</v>
+      </c>
+      <c r="K166" s="20" t="n">
+        <f aca="false">(H166-G166)/6</f>
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="34.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G167" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H167" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I167" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J167" s="20" t="n">
+        <f aca="false">(H167+4*I167+G167)/6</f>
+        <v>20</v>
+      </c>
+      <c r="K167" s="20" t="n">
+        <f aca="false">(H167-G167)/6</f>
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G168" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H168" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I168" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J168" s="20" t="n">
+        <f aca="false">(H168+4*I168+G168)/6</f>
+        <v>19.3333333333333</v>
+      </c>
+      <c r="K168" s="20" t="n">
+        <f aca="false">(H168-G168)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="45.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G169" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H169" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I169" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J169" s="20" t="n">
+        <f aca="false">(H169+4*I169+G169)/6</f>
+        <v>19.3333333333333</v>
+      </c>
+      <c r="K169" s="20" t="n">
+        <f aca="false">(H169-G169)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G170" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H170" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I170" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J170" s="20" t="n">
+        <f aca="false">(H170+4*I170+G170)/6</f>
+        <v>11.6666666666667</v>
+      </c>
+      <c r="K170" s="20" t="n">
+        <f aca="false">(H170-G170)/6</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G171" s="19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H171" s="19" t="n">
+        <v>188</v>
+      </c>
+      <c r="I171" s="19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J171" s="20" t="n">
+        <f aca="false">(H171+4*I171+G171)/6</f>
+        <v>152.666666666667</v>
+      </c>
+      <c r="K171" s="20" t="n">
+        <f aca="false">(H171-G171)/6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G172" s="19" t="n">
+        <v>68</v>
+      </c>
+      <c r="H172" s="19" t="n">
+        <v>88</v>
+      </c>
+      <c r="I172" s="19" t="n">
+        <v>78</v>
+      </c>
+      <c r="J172" s="20" t="n">
+        <f aca="false">(H172+4*I172+G172)/6</f>
+        <v>78</v>
+      </c>
+      <c r="K172" s="20" t="n">
+        <f aca="false">(H172-G172)/6</f>
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G173" s="19" t="n">
+        <v>70</v>
+      </c>
+      <c r="H173" s="19" t="n">
+        <v>112</v>
+      </c>
+      <c r="I173" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J173" s="20" t="n">
+        <f aca="false">(H173+4*I173+G173)/6</f>
+        <v>97</v>
+      </c>
+      <c r="K173" s="20" t="n">
+        <f aca="false">(H173-G173)/6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G174" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H174" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="I174" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J174" s="20" t="n">
+        <f aca="false">(H174+4*I174+G174)/6</f>
+        <v>12</v>
+      </c>
+      <c r="K174" s="20" t="n">
+        <f aca="false">(H174-G174)/6</f>
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="P1:Q1"/>
